--- a/suppxls/Scen_demo_NoRecordsEnhancement_MIG.xlsx
+++ b/suppxls/Scen_demo_NoRecordsEnhancement_MIG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Model_Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB720FB9-6DE4-4E8C-80F8-FD5874F5B48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933F4B5B-5D70-4995-9816-09B58C7BF2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="3120" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-9900" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>*2</t>
+  </si>
+  <si>
+    <t>hfghfghf</t>
   </si>
 </sst>
 </file>
@@ -648,7 +651,7 @@
   <dimension ref="B2:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,6 +881,9 @@
       <c r="F17">
         <v>2010</v>
       </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
       <c r="K17" t="s">
         <v>18</v>
       </c>
